--- a/data/case1/20/details_3.xlsx
+++ b/data/case1/20/details_3.xlsx
@@ -53,67 +53,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:Q1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.140625" customWidth="true"/>
     <col min="2" max="2" width="2.140625" customWidth="true"/>
     <col min="3" max="3" width="3.140625" customWidth="true"/>
-    <col min="4" max="4" width="3.140625" customWidth="true"/>
-    <col min="5" max="5" width="2.140625" customWidth="true"/>
-    <col min="6" max="6" width="3.140625" customWidth="true"/>
-    <col min="7" max="7" width="2.140625" customWidth="true"/>
-    <col min="8" max="8" width="2.140625" customWidth="true"/>
+    <col min="4" max="4" width="2.140625" customWidth="true"/>
+    <col min="5" max="5" width="3.140625" customWidth="true"/>
+    <col min="6" max="6" width="2.140625" customWidth="true"/>
+    <col min="7" max="7" width="3.140625" customWidth="true"/>
+    <col min="8" max="8" width="3.140625" customWidth="true"/>
     <col min="9" max="9" width="3.140625" customWidth="true"/>
     <col min="10" max="10" width="3.140625" customWidth="true"/>
-    <col min="11" max="11" width="5.7109375" customWidth="true"/>
-    <col min="12" max="12" width="5.7109375" customWidth="true"/>
-    <col min="13" max="13" width="5.7109375" customWidth="true"/>
+    <col min="11" max="11" width="2.140625" customWidth="true"/>
+    <col min="12" max="12" width="3.140625" customWidth="true"/>
+    <col min="13" max="13" width="4.7109375" customWidth="true"/>
     <col min="14" max="14" width="5.7109375" customWidth="true"/>
+    <col min="15" max="15" width="5.7109375" customWidth="true"/>
+    <col min="16" max="16" width="5.7109375" customWidth="true"/>
+    <col min="17" max="17" width="5.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0">
+        <v>5</v>
+      </c>
+      <c r="C1" s="0">
+        <v>23</v>
+      </c>
+      <c r="D1" s="0">
+        <v>8</v>
+      </c>
+      <c r="E1" s="0">
+        <v>15</v>
+      </c>
+      <c r="F1" s="0">
         <v>2</v>
       </c>
-      <c r="B1" s="0">
-        <v>2</v>
-      </c>
-      <c r="C1" s="0">
-        <v>15</v>
-      </c>
-      <c r="D1" s="0">
-        <v>19</v>
-      </c>
-      <c r="E1" s="0">
-        <v>5</v>
-      </c>
-      <c r="F1" s="0">
-        <v>16</v>
-      </c>
       <c r="G1" s="0">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I1" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0">
         <v>33</v>
       </c>
       <c r="K1" s="0">
-        <v>0.034000000000000002</v>
+        <v>9</v>
       </c>
       <c r="L1" s="0">
-        <v>0.019</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0">
-        <v>0.012999999999999999</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="N1" s="0">
-        <v>0.083000000000000004</v>
+        <v>0.023</v>
+      </c>
+      <c r="O1" s="0">
+        <v>0.032000000000000001</v>
+      </c>
+      <c r="P1" s="0">
+        <v>0.0060000000000000001</v>
+      </c>
+      <c r="Q1" s="0">
+        <v>0.097000000000000003</v>
       </c>
     </row>
   </sheetData>
